--- a/doc/v2_3审方测试用例.xlsx
+++ b/doc/v2_3审方测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3C2161-096F-471D-B7E8-1ED9F4613F01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F561DB4-6C92-4875-9B6A-3AB829AE1E53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADF09DBB-2C03-4C6D-AEEC-B4E8429CD16B}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="374">
   <si>
     <t>备注</t>
   </si>
@@ -2384,10 +2384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ccr和scr都传入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ccr与scr都不传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2396,27 +2392,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.a.ccr为90（预设值）
+    <t>只传ccr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果就诊信息中ccr或scr为空（由于审方的就诊信息中没有ccr和scr，故从就诊信息中取值不必测试），从检验信息中取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中传scr指（检验中indicator_name = IgnoreCase（scr）|| ‘血肌酐）
+传ccr指（检验中indicator_name = IgnoreCase（ccr））</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取ccr，展示格式为xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccr和scr都传入（不判断时间先后）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据scr计算ccr：
+Ccr=[(140-年龄)×体重(kg)]/[0.818×Scr(umol/L)]
+Ccr=(140-年龄)×体重(kg)/72×Scr(mg/dl)
+其中如果性别为女性时，ccr = ccr*0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一患者第一个处方不传ccr，取默认值，第二个处方传ccr，页面应该取ccr传入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方一中ccr取默认值，处方二中ccr取传入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.a1.ccr为90（预设值）
+a2ccr为90（预设值）
+a3ccr为90（预设值）
+a4ccr为90（预设值
 b根据相应公式计算
 2.a.ccr为90（预设值）
-b根据相应公式计算</t>
+b1.根据性别和年龄查出默认体重，然后根据公式计算
+b2.根据相应公式计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ccr为空，scr不为空时
 1.不使用默认身高、体重
-a.年龄为空||体重为空||性别为空/未知的性别/未说明的性别||单位错误
-b.
+a1.年龄为空||小于4岁
+a2体重为空(就诊信息和生命体征体重都为空，住院才有生命体征)
+a3性别为空
+a4/未知的性别/未说明的性别
+a5scr单位错误
+b.上述值正常传入
 2.使用默认身高、体重
-a.年龄为空||性别为空/未知的性别/未说明的性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只传ccr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取ccr</t>
+a.年龄为空||性别为空/未知的性别（0）/未说明的性别（9）
+b1.体重为空且其他字段值正常传入
+b2.体重不为空且其他字段值正常传入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3129,6 +3163,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12370</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>243917</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>111514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D7DDC58-662A-480E-B33A-DDA88AFCDFF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18060389" y="14720454"/>
+          <a:ext cx="9076190" cy="3476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4359,18 +4442,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BAC3E4-7A9B-442C-90C5-6FF3E9CB16A2}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="38.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="50.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="57.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="26.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="52.25" style="5" customWidth="1"/>
@@ -4498,7 +4581,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>344</v>
       </c>
@@ -4561,26 +4644,21 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="58"/>
+    </row>
+    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>368</v>
+        <v>366</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4588,15 +4666,42 @@
         <v>362</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="114" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>365</v>
+      <c r="D23" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C25" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4607,6 +4712,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/doc/v2_3审方测试用例.xlsx
+++ b/doc/v2_3审方测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F561DB4-6C92-4875-9B6A-3AB829AE1E53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC28BF0-FEEB-4848-A614-B781939B7EB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADF09DBB-2C03-4C6D-AEEC-B4E8429CD16B}"/>
   </bookViews>
@@ -4446,7 +4446,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/v2_3审方测试用例.xlsx
+++ b/doc/v2_3审方测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC28BF0-FEEB-4848-A614-B781939B7EB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35791E6-039B-4BDA-9CA8-91FCC9C34633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADF09DBB-2C03-4C6D-AEEC-B4E8429CD16B}"/>
   </bookViews>
@@ -2400,11 +2400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其中传scr指（检验中indicator_name = IgnoreCase（scr）|| ‘血肌酐）
-传ccr指（检验中indicator_name = IgnoreCase（ccr））</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>取ccr，展示格式为xx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2451,6 +2446,13 @@
 a.年龄为空||性别为空/未知的性别（0）/未说明的性别（9）
 b1.体重为空且其他字段值正常传入
 b2.体重不为空且其他字段值正常传入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别地：
+1.其中传scr指（检验中indicator_name = IgnoreCase（scr）|| ‘血肌酐‘ ||’血清肌酐‘）
+传ccr指（检验中indicator_name = IgnoreCase（ccr））
+2.3.3的合理用药，只有审方关联点的检验需要比对，其他检验不走比对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3175,7 +3177,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>243917</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>111514</xdr:rowOff>
+      <xdr:rowOff>111513</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4444,9 +4446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BAC3E4-7A9B-442C-90C5-6FF3E9CB16A2}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4647,7 +4649,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="58"/>
     </row>
-    <row r="20" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>354</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>357</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>365</v>
@@ -4674,34 +4676,34 @@
         <v>364</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/doc/v2_3审方测试用例.xlsx
+++ b/doc/v2_3审方测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35791E6-039B-4BDA-9CA8-91FCC9C34633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7AEBB3-A471-4E9E-B1DC-48A856052355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADF09DBB-2C03-4C6D-AEEC-B4E8429CD16B}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="385">
   <si>
     <t>备注</t>
   </si>
@@ -2408,13 +2408,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>根据scr计算ccr：
-Ccr=[(140-年龄)×体重(kg)]/[0.818×Scr(umol/L)]
-Ccr=(140-年龄)×体重(kg)/72×Scr(mg/dl)
-其中如果性别为女性时，ccr = ccr*0.85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同一患者第一个处方不传ccr，取默认值，第二个处方传ccr，页面应该取ccr传入值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2455,12 +2448,55 @@
 2.3.3的合理用药，只有审方关联点的检验需要比对，其他检验不走比对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>根据scr计算ccr：
+Ccr=[(140-年龄)×体重(kg)]/[0.818×Scr(umol/L或μmol/L)]
+Ccr=(140-年龄)×体重(kg)/72×Scr(mg/dl)
+其中如果性别为女性时，ccr = ccr*0.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方结果</t>
+  </si>
+  <si>
+    <t>引擎结果</t>
+  </si>
+  <si>
+    <t>检验 ccr 6</t>
+  </si>
+  <si>
+    <t>跑  病人资料.内生肌酐清除率 的规则</t>
+  </si>
+  <si>
+    <t>不跑 检验.血液.内生肌酐清除率 的规则</t>
+  </si>
+  <si>
+    <t>检验 内生肌酐清除率 6</t>
+  </si>
+  <si>
+    <t>跑 检验.血液.内生肌酐清除率 的规则</t>
+  </si>
+  <si>
+    <t>不跑 病人资料.内生肌酐清除率 的规则（ccr）</t>
+  </si>
+  <si>
+    <t>审方传入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设值</t>
+  </si>
+  <si>
+    <t>跑  病人资料.内生肌酐清除率 的规则
+不跑 检验.血液.内生肌酐清除率 的规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2759,6 +2795,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2780,7 +2823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2934,6 +2977,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCDD8D2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCDD8D2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCDD8D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCDD8D2"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCDD8D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCDD8D2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCDD8D2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCDD8D2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCDD8D2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCDD8D2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2943,7 +3121,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3146,6 +3324,39 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3177,7 +3388,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>243917</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>111513</xdr:rowOff>
+      <xdr:rowOff>12552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4444,11 +4655,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BAC3E4-7A9B-442C-90C5-6FF3E9CB16A2}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4457,7 +4668,7 @@
     <col min="2" max="2" width="38.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="57.25" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="31" style="5" customWidth="1"/>
     <col min="6" max="6" width="52.25" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
@@ -4657,7 +4868,7 @@
         <v>357</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>365</v>
@@ -4689,24 +4900,94 @@
     </row>
     <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>370</v>
-      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="84">
+        <v>6</v>
+      </c>
+      <c r="E27" s="80" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="83"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="81" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="C29" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="84">
+        <v>6</v>
+      </c>
+      <c r="E29" s="80" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="83"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="81" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" s="86"/>
+      <c r="E31" s="87" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="88"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{588AFB9B-D3A1-4112-9681-30F33704D33F}"/>

--- a/doc/v2_3审方测试用例.xlsx
+++ b/doc/v2_3审方测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7AEBB3-A471-4E9E-B1DC-48A856052355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A2F9C-B511-4E5C-AB20-9A22E05DBC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADF09DBB-2C03-4C6D-AEEC-B4E8429CD16B}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="426">
   <si>
     <t>备注</t>
   </si>
@@ -2491,12 +2491,182 @@
 不跑 检验.血液.内生肌酐清除率 的规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>【阳光融合】-v2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/v1/opt/auditResultList
+api/v1/ipt/all/engineMsgList 这两个接口 中的chatFlag 字段 1 是展示记录 0 不展示记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方/医嘱明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IM工具（实现为类似博客）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录按钮展示正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该任务作为主任务或合并任务在待审页面/已审页面/审方质量评价/用药警示管理页面均展示记录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生未在该药师打回的任务上发起聊天，点击小铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表显示 没有未读消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过小铃铛查看医生回复的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生未在该药师打回的任务上发起聊天多条，点击小铃铛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表显示多条消息：
+格式为 医生 医生姓名 发送理由时间
+您有一条未读消息  查看想详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.进入到任务详情页面且打开记录框
+2.小铃铛消息列表与该任务有关的消息被移除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药师审核打回的任务医生端发送理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方端药师发起的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生端医生发起的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.展示角色名为药师
+2.在审方端该消息前标识为灰圈；在医生端该消息前标识为篮圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.展示角色名为医生
+2.在审方端该消息前标识为蓝圈；在医生端该消息前标识为灰圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方端或医生端消息内容为空，点击发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无响应，不能发送消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录框有多条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按时间由近及远排序，且展示滚动条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字数限制在1-200，超过200的内容无法输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击记录框的取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭记录框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理由字数很多，点击发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非医生主动发起聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何页面不会有记录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录内容展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看记录内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方端点击任务详情的记录或医生端查看任务详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方端记录框-发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方端记录框-取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能查看记录内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生端按钮展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方端打回（双签）任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审方端打回任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮为 坚持使用 发送理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮为发送理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2801,6 +2971,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3121,7 +3299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3269,6 +3447,21 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3299,6 +3492,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3324,39 +3538,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4205,51 +4386,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
@@ -4357,11 +4538,11 @@
       <c r="D15" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
@@ -4374,11 +4555,11 @@
       <c r="D16" s="30">
         <v>43538</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
@@ -4387,9 +4568,9 @@
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
@@ -4398,245 +4579,245 @@
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4655,18 +4836,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BAC3E4-7A9B-442C-90C5-6FF3E9CB16A2}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.25" style="5" customWidth="1"/>
-    <col min="2" max="2" width="38.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="57.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="48.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="31" style="5" customWidth="1"/>
     <col min="6" max="6" width="52.25" style="5" customWidth="1"/>
@@ -4794,7 +4975,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>344</v>
       </c>
@@ -4808,7 +4989,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>347</v>
       </c>
@@ -4824,7 +5005,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>354</v>
       </c>
@@ -4898,7 +5079,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>371</v>
       </c>
@@ -4918,65 +5099,223 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="60" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="76" t="s">
         <v>376</v>
       </c>
-      <c r="D27" s="84">
+      <c r="D27" s="78">
         <v>6</v>
       </c>
-      <c r="E27" s="80" t="s">
+      <c r="E27" s="61" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="83"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="81" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="62" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="D29" s="84">
+      <c r="D29" s="78">
         <v>6</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="61" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="83"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="81" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="62" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="76" t="s">
         <v>383</v>
       </c>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87" t="s">
+      <c r="D31" s="80"/>
+      <c r="E31" s="74" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="88"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="75"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="63" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C36" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C39" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C40" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C47" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5030,38 +5369,38 @@
       <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="69" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="81" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="52" t="s">
         <v>275</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="82"/>
     </row>
     <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
@@ -5133,10 +5472,10 @@
       <c r="D7" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="83" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -5270,7 +5609,7 @@
       <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="85" t="s">
         <v>332</v>
       </c>
       <c r="B16" s="53"/>
@@ -5283,7 +5622,7 @@
       <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53" t="s">
         <v>325</v>
@@ -5334,10 +5673,10 @@
         <v>330</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="F20" s="72"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="53"/>
     </row>
   </sheetData>
@@ -6355,7 +6694,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="77" t="s">
+      <c r="B32" s="89" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6372,7 +6711,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="77"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>

--- a/doc/v2_3审方测试用例.xlsx
+++ b/doc/v2_3审方测试用例.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myproject\auditcenter_apitest\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134A2F9C-B511-4E5C-AB20-9A22E05DBC2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{ADF09DBB-2C03-4C6D-AEEC-B4E8429CD16B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20535" windowHeight="8910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="version" sheetId="6" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="患者模式" sheetId="7" r:id="rId3"/>
     <sheet name="审方2.x系统配置项" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>wmm</author>
   </authors>
   <commentList>
-    <comment ref="B32" authorId="0" shapeId="0" xr:uid="{3BA1CB55-8489-4960-B94D-F9FEE65D5FAF}">
+    <comment ref="B32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="451">
   <si>
     <t>备注</t>
   </si>
@@ -2517,10 +2516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该任务作为主任务或合并任务在待审页面/已审页面/审方质量评价/用药警示管理页面均展示记录按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小铃铛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2638,10 +2633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能查看记录内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>医生端按钮展示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2659,13 +2650,123 @@
   </si>
   <si>
     <t>按钮为发送理由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【宁波市一】v2.4-0724</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已审住院医嘱查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组号模糊查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已审住院医嘱查看存在组号为23_1，23，231的医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者模式下，一个任务中的两组医嘱分别打回，且医生均发起聊天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入该任务，且默认选中第一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.不同组号的切换查看时，展示各自的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.能查看记录内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该任务作为主任务或合并任务在待审页面（合并任务）/已审页面/审方质量评价/用药警示管理页面均展示记录按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件分别输入2，23，空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能查询出组号为23_1，23，231的医嘱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右模糊匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS  group_no与order_id复用（AUDIT-553）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打标签（AUDIT-560）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按组模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开具医嘱1未审核，视为任务一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增医嘱2未审核且存在合并未审核的医嘱1，视为任务二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务二的当前任务和合并任务打待处理标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前任务打待处理标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已审页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前实现情况：
+门诊对于已审任务，待审页面该任务作为主任务或者合并任务都会展示记录按钮，已审页面该任务作为主任务或者合并任务都会展示记录按钮；
+住院对于已审任务，待审页面合并任务不展示记录按钮，已审页面该任务作为主任务会展示记录按钮，作为合并任务不会展示记录按钮；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查看详情后关闭记录框返回到列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回列表为已审页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3299,7 +3400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3461,6 +3562,12 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3560,14 +3667,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>12370</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>243917</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>243916</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>12552</xdr:rowOff>
     </xdr:to>
@@ -4054,7 +4161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E688A09-553C-49D4-9022-F320135156B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4386,51 +4493,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
@@ -4538,11 +4645,11 @@
       <c r="D15" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="67" t="s">
+      <c r="E15" s="69" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
@@ -4555,11 +4662,11 @@
       <c r="D16" s="30">
         <v>43538</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
@@ -4568,9 +4675,9 @@
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
@@ -4579,245 +4686,245 @@
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="41"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
-      <c r="G37" s="65"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="65"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="65"/>
-      <c r="G43" s="65"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="65"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
-      <c r="G45" s="65"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4835,26 +4942,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BAC3E4-7A9B-442C-90C5-6FF3E9CB16A2}">
-  <dimension ref="A1:F48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="48.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="5" customWidth="1"/>
-    <col min="5" max="5" width="31" style="5" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="20.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="47.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15" style="5" customWidth="1"/>
+    <col min="7" max="7" width="31" style="5" customWidth="1"/>
+    <col min="8" max="8" width="52.25" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="45" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>1</v>
       </c>
@@ -4862,309 +4971,319 @@
         <v>245</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="114" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="114" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="G6" s="48" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="G7" s="48" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="58" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="C17" s="5" t="s">
+    <row r="17" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="D17" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="58" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="58"/>
     </row>
-    <row r="20" spans="1:6" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="5" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="213.75" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
+    <row r="24" spans="1:8" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="D24" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
+    <row r="25" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="59" t="s">
+    <row r="26" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="59" t="s">
         <v>382</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="E26" s="60" t="s">
         <v>374</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="F26" s="60"/>
+      <c r="G26" s="60" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="76" t="s">
+    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="D27" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="D27" s="78">
+      <c r="E27" s="80">
         <v>6</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="F27" s="61"/>
+      <c r="G27" s="61" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="77"/>
+    <row r="28" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D28" s="79"/>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="81"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="76" t="s">
+    <row r="29" spans="1:8" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="D29" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="D29" s="78">
+      <c r="E29" s="80">
         <v>6</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="F29" s="61"/>
+      <c r="G29" s="61" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="77"/>
+    <row r="30" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D30" s="79"/>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="81"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="76" t="s">
+    <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="82"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="76" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="75"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="77"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="63" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
         <v>388</v>
       </c>
@@ -5172,165 +5291,258 @@
         <v>389</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>387</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="H35" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="D36" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="F36" s="63"/>
+      <c r="G36" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E38" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C36" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E39" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D40" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D41" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D43" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D46" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B38" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C39" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C40" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="B47" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D48" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C50" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D51" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="63" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C45" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D45" s="5" t="s">
+    <row r="53" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C47" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>399</v>
+      <c r="B54" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D57" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{588AFB9B-D3A1-4112-9681-30F33704D33F}"/>
-    <hyperlink ref="E7" r:id="rId2" xr:uid="{4EB49B19-5E62-473D-852C-C5C3D09EC3CE}"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -5339,7 +5551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05EA2CB-90BE-4EBE-8326-344A5769F60D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5369,38 +5581,38 @@
       <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="83" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="81" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="83" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="52" t="s">
         <v>275</v>
       </c>
       <c r="F3" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="G3" s="82"/>
+      <c r="G3" s="84"/>
     </row>
     <row r="4" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
@@ -5472,10 +5684,10 @@
       <c r="D7" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="F7" s="84"/>
+      <c r="F7" s="86"/>
       <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
@@ -5609,7 +5821,7 @@
       <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="87" t="s">
         <v>332</v>
       </c>
       <c r="B16" s="53"/>
@@ -5622,7 +5834,7 @@
       <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="86"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53" t="s">
         <v>325</v>
@@ -5673,10 +5885,10 @@
         <v>330</v>
       </c>
       <c r="D20" s="53"/>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="F20" s="84"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="53"/>
     </row>
   </sheetData>
@@ -5697,7 +5909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4010F523-A42A-4849-9204-16A2D8B02CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -6694,7 +6906,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="91" t="s">
         <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -6711,7 +6923,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="89"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="2" t="s">
         <v>119</v>
       </c>
@@ -7210,9 +7422,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E52" r:id="rId1" xr:uid="{BF9BC038-563D-4232-9752-1A36F3EAE49C}"/>
-    <hyperlink ref="E29" r:id="rId2" xr:uid="{D5A84BAB-593F-40E5-8E3B-0FCFFED3832B}"/>
-    <hyperlink ref="E28" r:id="rId3" xr:uid="{72C49F0C-009E-4BAD-A11B-217EE6BBA091}"/>
+    <hyperlink ref="E52" r:id="rId1"/>
+    <hyperlink ref="E29" r:id="rId2"/>
+    <hyperlink ref="E28" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/doc/v2_3审方测试用例.xlsx
+++ b/doc/v2_3审方测试用例.xlsx
@@ -4946,8 +4946,8 @@
   <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
